--- a/biology/Médecine/Gerhard_Rose/Gerhard_Rose.xlsx
+++ b/biology/Médecine/Gerhard_Rose/Gerhard_Rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerhard Rose, né le 30 novembre 1896 à Dantzig et décédé le 13 janvier 1992 à Obernkirchen est un médecin allemand spécialisé en médecine tropicale. Il a mené des expérimentations médicales dans les camps de concentration de Buchenwald et de Dachau et fut accusé de crime de guerre au cours du procès des médecins.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Rose a étudié à l'université de Breslau et de l'université de Berlin puis, après avoir terminé ses études, il a travaillé à l'Institut Robert-Koch et l'Université de Heidelberg. Il a travaillé en Chine de 1929 à 1936.
 En 1939, Rose est devenu un membre du corps médical de la Luftwaffe, où il est devenu un général de brigade. Pendant la guerre, il a effectué des expériences mortelles sur les prisonniers dans le camp de concentration de Buchenwald et de Dachau, où il a étudié le paludisme et le typhus. Plus de 1 200 prisonniers ont été infectés volontairement pour tester l'effet de vaccins au moyen de moustiques porteurs du virus ou d'injections de sang contaminé. Rose a été capturé par les troupes alliées le 8 mai 1945.
